--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F2-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F2-Thbd.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H2">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I2">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J2">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.16470200000001</v>
+        <v>34.30489066666667</v>
       </c>
       <c r="N2">
-        <v>96.49410600000002</v>
+        <v>102.914672</v>
       </c>
       <c r="O2">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="P2">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="Q2">
-        <v>13.30050097499134</v>
+        <v>24.48433813581156</v>
       </c>
       <c r="R2">
-        <v>119.704508774922</v>
+        <v>220.359043222304</v>
       </c>
       <c r="S2">
-        <v>0.08522641240234169</v>
+        <v>0.1184578483765065</v>
       </c>
       <c r="T2">
-        <v>0.08522641240234169</v>
+        <v>0.1184578483765065</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H3">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I3">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J3">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>41.497732</v>
       </c>
       <c r="O3">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="P3">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="Q3">
-        <v>5.719941329120446</v>
+        <v>9.872688533247112</v>
       </c>
       <c r="R3">
-        <v>51.47947196208401</v>
+        <v>88.854196799224</v>
       </c>
       <c r="S3">
-        <v>0.03665200878894977</v>
+        <v>0.04776512376413054</v>
       </c>
       <c r="T3">
-        <v>0.03665200878894977</v>
+        <v>0.04776512376413054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H4">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I4">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J4">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.759553</v>
+        <v>25.48814066666667</v>
       </c>
       <c r="N4">
-        <v>38.278659</v>
+        <v>76.46442200000001</v>
       </c>
       <c r="O4">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="P4">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="Q4">
-        <v>5.276232533320336</v>
+        <v>18.19158266964489</v>
       </c>
       <c r="R4">
-        <v>47.48609279988302</v>
+        <v>163.724244026804</v>
       </c>
       <c r="S4">
-        <v>0.03380882950656705</v>
+        <v>0.08801282393897349</v>
       </c>
       <c r="T4">
-        <v>0.03380882950656704</v>
+        <v>0.08801282393897351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H5">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I5">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J5">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.879139333333334</v>
+        <v>3.430646</v>
       </c>
       <c r="N5">
-        <v>14.637418</v>
+        <v>10.291938</v>
       </c>
       <c r="O5">
-        <v>0.06095024976022007</v>
+        <v>0.03410654302013726</v>
       </c>
       <c r="P5">
-        <v>0.06095024976022006</v>
+        <v>0.03410654302013727</v>
       </c>
       <c r="Q5">
-        <v>2.017584290385112</v>
+        <v>2.448545821190667</v>
       </c>
       <c r="R5">
-        <v>18.158258613466</v>
+        <v>22.036912390716</v>
       </c>
       <c r="S5">
-        <v>0.01292819504409378</v>
+        <v>0.01184632674245325</v>
       </c>
       <c r="T5">
-        <v>0.01292819504409378</v>
+        <v>0.01184632674245326</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H6">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I6">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J6">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.803816</v>
+        <v>7.592334333333334</v>
       </c>
       <c r="N6">
-        <v>23.411448</v>
+        <v>22.777003</v>
       </c>
       <c r="O6">
-        <v>0.09748533538144531</v>
+        <v>0.07548090871605478</v>
       </c>
       <c r="P6">
-        <v>0.0974853353814453</v>
+        <v>0.0754809087160548</v>
       </c>
       <c r="Q6">
-        <v>3.226974163064001</v>
+        <v>5.418856537505111</v>
       </c>
       <c r="R6">
-        <v>29.04276746757601</v>
+        <v>48.76970883754601</v>
       </c>
       <c r="S6">
-        <v>0.02067767457407168</v>
+        <v>0.02621700789023777</v>
       </c>
       <c r="T6">
-        <v>0.02067767457407168</v>
+        <v>0.02621700789023778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H7">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I7">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J7">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.611390999999999</v>
+        <v>15.93756533333333</v>
       </c>
       <c r="N7">
-        <v>25.834173</v>
+        <v>47.812696</v>
       </c>
       <c r="O7">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="P7">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="Q7">
-        <v>3.560916385655667</v>
+        <v>11.37507600518578</v>
       </c>
       <c r="R7">
-        <v>32.048247470901</v>
+        <v>102.375684046672</v>
       </c>
       <c r="S7">
-        <v>0.02281749604656102</v>
+        <v>0.05503383514879196</v>
       </c>
       <c r="T7">
-        <v>0.02281749604656102</v>
+        <v>0.05503383514879197</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.811317</v>
       </c>
       <c r="I8">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J8">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.16470200000001</v>
+        <v>34.30489066666667</v>
       </c>
       <c r="N8">
-        <v>96.49410600000002</v>
+        <v>102.914672</v>
       </c>
       <c r="O8">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="P8">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="Q8">
-        <v>19.42015717751134</v>
+        <v>20.71234388255823</v>
       </c>
       <c r="R8">
-        <v>174.781414597602</v>
+        <v>186.411094943024</v>
       </c>
       <c r="S8">
-        <v>0.1244396979964099</v>
+        <v>0.1002085364755488</v>
       </c>
       <c r="T8">
-        <v>0.1244396979964099</v>
+        <v>0.1002085364755488</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.811317</v>
       </c>
       <c r="I9">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J9">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>41.497732</v>
       </c>
       <c r="O9">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="P9">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="Q9">
         <v>8.351727492560444</v>
@@ -1013,10 +1013,10 @@
         <v>75.165547433044</v>
       </c>
       <c r="S9">
-        <v>0.05351586176274802</v>
+        <v>0.04040655146600038</v>
       </c>
       <c r="T9">
-        <v>0.05351586176274801</v>
+        <v>0.04040655146600038</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.811317</v>
       </c>
       <c r="I10">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J10">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.759553</v>
+        <v>25.48814066666667</v>
       </c>
       <c r="N10">
-        <v>38.278659</v>
+        <v>76.46442200000001</v>
       </c>
       <c r="O10">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="P10">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="Q10">
-        <v>7.703865087100335</v>
+        <v>15.38903416264156</v>
       </c>
       <c r="R10">
-        <v>69.33478578390302</v>
+        <v>138.501307463774</v>
       </c>
       <c r="S10">
-        <v>0.04936451523440776</v>
+        <v>0.0744537943148549</v>
       </c>
       <c r="T10">
-        <v>0.04936451523440775</v>
+        <v>0.07445379431485491</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.811317</v>
       </c>
       <c r="I11">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J11">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.879139333333334</v>
+        <v>3.430646</v>
       </c>
       <c r="N11">
-        <v>14.637418</v>
+        <v>10.291938</v>
       </c>
       <c r="O11">
-        <v>0.06095024976022007</v>
+        <v>0.03410654302013726</v>
       </c>
       <c r="P11">
-        <v>0.06095024976022006</v>
+        <v>0.03410654302013727</v>
       </c>
       <c r="Q11">
-        <v>2.945889339945111</v>
+        <v>2.071329140260667</v>
       </c>
       <c r="R11">
-        <v>26.513004059506</v>
+        <v>18.641962262346</v>
       </c>
       <c r="S11">
-        <v>0.01887655060887567</v>
+        <v>0.0100213120678953</v>
       </c>
       <c r="T11">
-        <v>0.01887655060887567</v>
+        <v>0.0100213120678953</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.811317</v>
       </c>
       <c r="I12">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J12">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.803816</v>
+        <v>7.592334333333334</v>
       </c>
       <c r="N12">
-        <v>23.411448</v>
+        <v>22.777003</v>
       </c>
       <c r="O12">
-        <v>0.09748533538144531</v>
+        <v>0.07548090871605478</v>
       </c>
       <c r="P12">
-        <v>0.0974853353814453</v>
+        <v>0.0754809087160548</v>
       </c>
       <c r="Q12">
-        <v>4.711728195224</v>
+        <v>4.584041415883445</v>
       </c>
       <c r="R12">
-        <v>42.405553757016</v>
+        <v>41.256372742951</v>
       </c>
       <c r="S12">
-        <v>0.03019162143207642</v>
+        <v>0.02217808298440852</v>
       </c>
       <c r="T12">
-        <v>0.03019162143207642</v>
+        <v>0.02217808298440853</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.811317</v>
       </c>
       <c r="I13">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J13">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.611390999999999</v>
+        <v>15.93756533333333</v>
       </c>
       <c r="N13">
-        <v>25.834173</v>
+        <v>47.812696</v>
       </c>
       <c r="O13">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="P13">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="Q13">
-        <v>5.199319637315666</v>
+        <v>9.62266100895911</v>
       </c>
       <c r="R13">
-        <v>46.793876735841</v>
+        <v>86.60394908063199</v>
       </c>
       <c r="S13">
-        <v>0.03331599016117114</v>
+        <v>0.04655546384202949</v>
       </c>
       <c r="T13">
-        <v>0.03331599016117114</v>
+        <v>0.04655546384202951</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H14">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I14">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J14">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>32.16470200000001</v>
+        <v>34.30489066666667</v>
       </c>
       <c r="N14">
-        <v>96.49410600000002</v>
+        <v>102.914672</v>
       </c>
       <c r="O14">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="P14">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="Q14">
-        <v>9.687708038514668</v>
+        <v>3.190594966234667</v>
       </c>
       <c r="R14">
-        <v>87.18937234663201</v>
+        <v>28.715354696112</v>
       </c>
       <c r="S14">
-        <v>0.06207650389082203</v>
+        <v>0.01543643992517274</v>
       </c>
       <c r="T14">
-        <v>0.06207650389082201</v>
+        <v>0.01543643992517274</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H15">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I15">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J15">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>41.497732</v>
       </c>
       <c r="O15">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="P15">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="Q15">
-        <v>4.166243188744889</v>
+        <v>1.286526520041333</v>
       </c>
       <c r="R15">
-        <v>37.496188698704</v>
+        <v>11.578738680372</v>
       </c>
       <c r="S15">
-        <v>0.02669628466176254</v>
+        <v>0.006224352996518496</v>
       </c>
       <c r="T15">
-        <v>0.02669628466176254</v>
+        <v>0.006224352996518497</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H16">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I16">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J16">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.759553</v>
+        <v>25.48814066666667</v>
       </c>
       <c r="N16">
-        <v>38.278659</v>
+        <v>76.46442200000001</v>
       </c>
       <c r="O16">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="P16">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="Q16">
-        <v>3.843058274438667</v>
+        <v>2.370575498984667</v>
       </c>
       <c r="R16">
-        <v>34.58752446994801</v>
+        <v>21.335179490862</v>
       </c>
       <c r="S16">
-        <v>0.02462539343438188</v>
+        <v>0.01146909797872219</v>
       </c>
       <c r="T16">
-        <v>0.02462539343438188</v>
+        <v>0.01146909797872219</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H17">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I17">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J17">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.879139333333334</v>
+        <v>3.430646</v>
       </c>
       <c r="N17">
-        <v>14.637418</v>
+        <v>10.291938</v>
       </c>
       <c r="O17">
-        <v>0.06095024976022007</v>
+        <v>0.03410654302013726</v>
       </c>
       <c r="P17">
-        <v>0.06095024976022006</v>
+        <v>0.03410654302013727</v>
       </c>
       <c r="Q17">
-        <v>1.469551228566222</v>
+        <v>0.319074092522</v>
       </c>
       <c r="R17">
-        <v>13.225961057096</v>
+        <v>2.871666832698</v>
       </c>
       <c r="S17">
-        <v>0.009416530947792689</v>
+        <v>0.001543714609036527</v>
       </c>
       <c r="T17">
-        <v>0.009416530947792689</v>
+        <v>0.001543714609036527</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H18">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I18">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J18">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.803816</v>
+        <v>7.592334333333334</v>
       </c>
       <c r="N18">
-        <v>23.411448</v>
+        <v>22.777003</v>
       </c>
       <c r="O18">
-        <v>0.09748533538144531</v>
+        <v>0.07548090871605478</v>
       </c>
       <c r="P18">
-        <v>0.0974853353814453</v>
+        <v>0.0754809087160548</v>
       </c>
       <c r="Q18">
-        <v>2.350436543584</v>
+        <v>0.7061402393403334</v>
       </c>
       <c r="R18">
-        <v>21.153928892256</v>
+        <v>6.355262154063</v>
       </c>
       <c r="S18">
-        <v>0.01506103225477603</v>
+        <v>0.003416382053717075</v>
       </c>
       <c r="T18">
-        <v>0.01506103225477603</v>
+        <v>0.003416382053717075</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H19">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I19">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J19">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.611390999999999</v>
+        <v>15.93756533333333</v>
       </c>
       <c r="N19">
-        <v>25.834173</v>
+        <v>47.812696</v>
       </c>
       <c r="O19">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="P19">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="Q19">
-        <v>2.593670596217333</v>
+        <v>1.482305138957333</v>
       </c>
       <c r="R19">
-        <v>23.343035365956</v>
+        <v>13.340746250616</v>
       </c>
       <c r="S19">
-        <v>0.01661961758317828</v>
+        <v>0.007171550908353929</v>
       </c>
       <c r="T19">
-        <v>0.01661961758317828</v>
+        <v>0.007171550908353929</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H20">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I20">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J20">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>32.16470200000001</v>
+        <v>34.30489066666667</v>
       </c>
       <c r="N20">
-        <v>96.49410600000002</v>
+        <v>102.914672</v>
       </c>
       <c r="O20">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="P20">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="Q20">
-        <v>13.65733617897934</v>
+        <v>9.05963575097778</v>
       </c>
       <c r="R20">
-        <v>122.916025610814</v>
+        <v>81.5367217588</v>
       </c>
       <c r="S20">
-        <v>0.08751292659544897</v>
+        <v>0.04383148738523706</v>
       </c>
       <c r="T20">
-        <v>0.08751292659544896</v>
+        <v>0.04383148738523706</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H21">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I21">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J21">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>41.497732</v>
       </c>
       <c r="O21">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="P21">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="Q21">
-        <v>5.873399942056444</v>
+        <v>3.653068402255556</v>
       </c>
       <c r="R21">
-        <v>52.860599478508</v>
+        <v>32.8776156203</v>
       </c>
       <c r="S21">
-        <v>0.03763533468452066</v>
+        <v>0.01767393590560098</v>
       </c>
       <c r="T21">
-        <v>0.03763533468452065</v>
+        <v>0.01767393590560098</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H22">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I22">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J22">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.759553</v>
+        <v>25.48814066666667</v>
       </c>
       <c r="N22">
-        <v>38.278659</v>
+        <v>76.46442200000001</v>
       </c>
       <c r="O22">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="P22">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="Q22">
-        <v>5.417787014302335</v>
+        <v>6.731205548894446</v>
       </c>
       <c r="R22">
-        <v>48.76008312872101</v>
+        <v>60.58084994005001</v>
       </c>
       <c r="S22">
-        <v>0.03471587658669248</v>
+        <v>0.03256629286359133</v>
       </c>
       <c r="T22">
-        <v>0.03471587658669247</v>
+        <v>0.03256629286359134</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H23">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I23">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J23">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.879139333333334</v>
+        <v>3.430646</v>
       </c>
       <c r="N23">
-        <v>14.637418</v>
+        <v>10.291938</v>
       </c>
       <c r="O23">
-        <v>0.06095024976022007</v>
+        <v>0.03410654302013726</v>
       </c>
       <c r="P23">
-        <v>0.06095024976022006</v>
+        <v>0.03410654302013727</v>
       </c>
       <c r="Q23">
-        <v>2.071713462149111</v>
+        <v>0.9060050198833333</v>
       </c>
       <c r="R23">
-        <v>18.645421159342</v>
+        <v>8.15404517895</v>
       </c>
       <c r="S23">
-        <v>0.01327504176245649</v>
+        <v>0.004383349252831917</v>
       </c>
       <c r="T23">
-        <v>0.01327504176245649</v>
+        <v>0.004383349252831919</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H24">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I24">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J24">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.803816</v>
+        <v>7.592334333333334</v>
       </c>
       <c r="N24">
-        <v>23.411448</v>
+        <v>22.777003</v>
       </c>
       <c r="O24">
-        <v>0.09748533538144531</v>
+        <v>0.07548090871605478</v>
       </c>
       <c r="P24">
-        <v>0.0974853353814453</v>
+        <v>0.0754809087160548</v>
       </c>
       <c r="Q24">
-        <v>3.313549697768</v>
+        <v>2.005072227980556</v>
       </c>
       <c r="R24">
-        <v>29.821947279912</v>
+        <v>18.045650051825</v>
       </c>
       <c r="S24">
-        <v>0.02123242978506035</v>
+        <v>0.009700754035032113</v>
       </c>
       <c r="T24">
-        <v>0.02123242978506035</v>
+        <v>0.009700754035032115</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H25">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I25">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J25">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.611390999999999</v>
+        <v>15.93756533333333</v>
       </c>
       <c r="N25">
-        <v>25.834173</v>
+        <v>47.812696</v>
       </c>
       <c r="O25">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="P25">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="Q25">
-        <v>3.656451157409667</v>
+        <v>4.208978191488889</v>
       </c>
       <c r="R25">
-        <v>32.908060416687</v>
+        <v>37.88080372339999</v>
       </c>
       <c r="S25">
-        <v>0.02342965989449272</v>
+        <v>0.02036348696304618</v>
       </c>
       <c r="T25">
-        <v>0.02342965989449272</v>
+        <v>0.02036348696304618</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H26">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I26">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J26">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>32.16470200000001</v>
+        <v>34.30489066666667</v>
       </c>
       <c r="N26">
-        <v>96.49410600000002</v>
+        <v>102.914672</v>
       </c>
       <c r="O26">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="P26">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="Q26">
-        <v>2.391788683854667</v>
+        <v>7.240584618487112</v>
       </c>
       <c r="R26">
-        <v>21.526098154692</v>
+        <v>65.165261566384</v>
       </c>
       <c r="S26">
-        <v>0.01532600682731687</v>
+        <v>0.03503072331939031</v>
       </c>
       <c r="T26">
-        <v>0.01532600682731687</v>
+        <v>0.0350307233193903</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H27">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I27">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J27">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>41.497732</v>
       </c>
       <c r="O27">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="P27">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="Q27">
-        <v>1.028599672224889</v>
+        <v>2.919582156578223</v>
       </c>
       <c r="R27">
-        <v>9.257397050024</v>
+        <v>26.276239409204</v>
       </c>
       <c r="S27">
-        <v>0.006591019392937488</v>
+        <v>0.01412525094647543</v>
       </c>
       <c r="T27">
-        <v>0.006591019392937486</v>
+        <v>0.01412525094647543</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H28">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I28">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J28">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.759553</v>
+        <v>25.48814066666667</v>
       </c>
       <c r="N28">
-        <v>38.278659</v>
+        <v>76.46442200000001</v>
       </c>
       <c r="O28">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="P28">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="Q28">
-        <v>0.9488088674486669</v>
+        <v>5.379671401903779</v>
       </c>
       <c r="R28">
-        <v>8.539279807038001</v>
+        <v>48.41704261713401</v>
       </c>
       <c r="S28">
-        <v>0.006079739100070364</v>
+        <v>0.02602742601034672</v>
       </c>
       <c r="T28">
-        <v>0.006079739100070363</v>
+        <v>0.02602742601034672</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H29">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I29">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J29">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.879139333333334</v>
+        <v>3.430646</v>
       </c>
       <c r="N29">
-        <v>14.637418</v>
+        <v>10.291938</v>
       </c>
       <c r="O29">
-        <v>0.06095024976022007</v>
+        <v>0.03410654302013726</v>
       </c>
       <c r="P29">
-        <v>0.06095024976022006</v>
+        <v>0.03410654302013727</v>
       </c>
       <c r="Q29">
-        <v>0.3628160535862223</v>
+        <v>0.7240915850873334</v>
       </c>
       <c r="R29">
-        <v>3.265344482276</v>
+        <v>6.516824265786</v>
       </c>
       <c r="S29">
-        <v>0.00232483803935435</v>
+        <v>0.003503232585712551</v>
       </c>
       <c r="T29">
-        <v>0.00232483803935435</v>
+        <v>0.003503232585712552</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H30">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I30">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J30">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.803816</v>
+        <v>7.592334333333334</v>
       </c>
       <c r="N30">
-        <v>23.411448</v>
+        <v>22.777003</v>
       </c>
       <c r="O30">
-        <v>0.09748533538144531</v>
+        <v>0.07548090871605478</v>
       </c>
       <c r="P30">
-        <v>0.0974853353814453</v>
+        <v>0.0754809087160548</v>
       </c>
       <c r="Q30">
-        <v>0.580296960304</v>
+        <v>1.602481107621222</v>
       </c>
       <c r="R30">
-        <v>5.222672642736</v>
+        <v>14.422329968591</v>
       </c>
       <c r="S30">
-        <v>0.003718403400570122</v>
+        <v>0.007752975106775084</v>
       </c>
       <c r="T30">
-        <v>0.003718403400570122</v>
+        <v>0.007752975106775084</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H31">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I31">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J31">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.611390999999999</v>
+        <v>15.93756533333333</v>
       </c>
       <c r="N31">
-        <v>25.834173</v>
+        <v>47.812696</v>
       </c>
       <c r="O31">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="P31">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="Q31">
-        <v>0.6403487756873333</v>
+        <v>3.363872852123555</v>
       </c>
       <c r="R31">
-        <v>5.763138981186</v>
+        <v>30.274855669112</v>
       </c>
       <c r="S31">
-        <v>0.00410320099526167</v>
+        <v>0.01627477688244606</v>
       </c>
       <c r="T31">
-        <v>0.00410320099526167</v>
+        <v>0.01627477688244606</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H32">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I32">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J32">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>32.16470200000001</v>
+        <v>34.30489066666667</v>
       </c>
       <c r="N32">
-        <v>96.49410600000002</v>
+        <v>102.914672</v>
       </c>
       <c r="O32">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="P32">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="Q32">
-        <v>4.248002914707333</v>
+        <v>5.804913509123558</v>
       </c>
       <c r="R32">
-        <v>38.232026232366</v>
+        <v>52.24422158211201</v>
       </c>
       <c r="S32">
-        <v>0.02722018132820238</v>
+        <v>0.02808479283729268</v>
       </c>
       <c r="T32">
-        <v>0.02722018132820238</v>
+        <v>0.02808479283729267</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H33">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I33">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J33">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>41.497732</v>
       </c>
       <c r="O33">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="P33">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="Q33">
-        <v>1.826873099272444</v>
+        <v>2.340684184319112</v>
       </c>
       <c r="R33">
-        <v>16.441857893452</v>
+        <v>21.066157658872</v>
       </c>
       <c r="S33">
-        <v>0.01170616358422084</v>
+        <v>0.01132448059920446</v>
       </c>
       <c r="T33">
-        <v>0.01170616358422085</v>
+        <v>0.01132448059920446</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H34">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I34">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J34">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>12.759553</v>
+        <v>25.48814066666667</v>
       </c>
       <c r="N34">
-        <v>38.278659</v>
+        <v>76.46442200000001</v>
       </c>
       <c r="O34">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="P34">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="Q34">
-        <v>1.685158417894334</v>
+        <v>4.31298421895689</v>
       </c>
       <c r="R34">
-        <v>15.166425761049</v>
+        <v>38.81685797061201</v>
       </c>
       <c r="S34">
-        <v>0.01079808997847419</v>
+        <v>0.02086667925534781</v>
       </c>
       <c r="T34">
-        <v>0.01079808997847419</v>
+        <v>0.02086667925534781</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H35">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I35">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J35">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.879139333333334</v>
+        <v>3.430646</v>
       </c>
       <c r="N35">
-        <v>14.637418</v>
+        <v>10.291938</v>
       </c>
       <c r="O35">
-        <v>0.06095024976022007</v>
+        <v>0.03410654302013726</v>
       </c>
       <c r="P35">
-        <v>0.06095024976022006</v>
+        <v>0.03410654302013727</v>
       </c>
       <c r="Q35">
-        <v>0.6443895581331111</v>
+        <v>0.5805179064386667</v>
       </c>
       <c r="R35">
-        <v>5.799506023198</v>
+        <v>5.224661157948001</v>
       </c>
       <c r="S35">
-        <v>0.004129093357647081</v>
+        <v>0.002808607762207707</v>
       </c>
       <c r="T35">
-        <v>0.004129093357647082</v>
+        <v>0.002808607762207708</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H36">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I36">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J36">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.803816</v>
+        <v>7.592334333333334</v>
       </c>
       <c r="N36">
-        <v>23.411448</v>
+        <v>22.777003</v>
       </c>
       <c r="O36">
-        <v>0.09748533538144531</v>
+        <v>0.07548090871605478</v>
       </c>
       <c r="P36">
-        <v>0.0974853353814453</v>
+        <v>0.0754809087160548</v>
       </c>
       <c r="Q36">
-        <v>1.030652580392</v>
+        <v>1.284739384993111</v>
       </c>
       <c r="R36">
-        <v>9.275873223528</v>
+        <v>11.562654464938</v>
       </c>
       <c r="S36">
-        <v>0.006604173934890705</v>
+        <v>0.00621570664588421</v>
       </c>
       <c r="T36">
-        <v>0.006604173934890705</v>
+        <v>0.00621570664588421</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H37">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I37">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J37">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.611390999999999</v>
+        <v>15.93756533333333</v>
       </c>
       <c r="N37">
-        <v>25.834173</v>
+        <v>47.812696</v>
       </c>
       <c r="O37">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="P37">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="Q37">
-        <v>1.137309279833666</v>
+        <v>2.696880430401778</v>
       </c>
       <c r="R37">
-        <v>10.235783518503</v>
+        <v>24.271923873616</v>
       </c>
       <c r="S37">
-        <v>0.007287604421394917</v>
+        <v>0.01304779616022535</v>
       </c>
       <c r="T37">
-        <v>0.007287604421394919</v>
+        <v>0.01304779616022535</v>
       </c>
     </row>
   </sheetData>
